--- a/Kayak/src/test/java/com/infostretch/kayak/testdata/KayakTestData.xlsx
+++ b/Kayak/src/test/java/com/infostretch/kayak/testdata/KayakTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimishajain/eclipse-workspace/Kayak/src/test/java/com/infostretch/kayak/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBCEB7-B945-1A41-9DE9-F586572C7967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB235A-55E1-DF49-8056-6D0960AEC2AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{862245B4-8513-9148-A63C-E491114207A2}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>ToDate(mm/dd/yyyy)</t>
   </si>
   <si>
-    <t>Oakland</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Dallas</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,21 +449,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>43997</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>44047</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>43973</v>
